--- a/ahca_data/matched_provider_facility_data.xlsx
+++ b/ahca_data/matched_provider_facility_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="update_licenses" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="new_licenses" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="expired_licenses" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,60 +587,50 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>facility_exp_date</t>
+          <t>FB_NUMBER</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>FB_NUMBER</t>
+          <t>PROVIDER_ID</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>PROVIDER_ID</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>PROVIDER_CATEGORY_CD</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>PROVIDER_CATEGORY_CD</t>
+          <t>SPECIALTY_DE</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>SPECIALTY_DE</t>
+          <t>LICENSE_NB</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>LICENSE_NB</t>
+          <t>LICENSE_TYPE_DES</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>LICENSE_TYPE_DES</t>
+          <t>EXPIRATION_DATE</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>EXPIRATION_DATE</t>
+          <t>match_timestamp</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>provider_exp_date</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>match_timestamp</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>match_criteria</t>
         </is>
@@ -771,50 +762,46 @@
           <t>HOSPICE</t>
         </is>
       </c>
-      <c r="AD2" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>6554R</t>
         </is>
       </c>
-      <c r="AF2" t="n">
+      <c r="AE2" t="n">
         <v>200909100</v>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>SUNCOAST HOSPICE</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>SUNCOAST HOSPICE</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
           <t>HOSPICE</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AI2" t="n">
         <v>5032096</v>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>STATE</t>
+          <t>06/26/2019</t>
         </is>
       </c>
       <c r="AL2" s="2" t="n">
-        <v>43642</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>43642</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>45867.78419329081</v>
-      </c>
-      <c r="AO2" t="inlineStr">
+        <v>45889.49537246783</v>
+      </c>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>name_and_license_match_with_exp_date_filter</t>
         </is>
@@ -946,48 +933,44 @@
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="AD3" s="2" t="n">
-        <v>46658</v>
+      <c r="AD3" t="n">
+        <v>12344</v>
       </c>
       <c r="AE3" t="n">
-        <v>12344</v>
-      </c>
-      <c r="AF3" t="n">
         <v>200909099</v>
       </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEMORIAL REGIONAL HOSPITAL</t>
+        </is>
+      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MEMORIAL REGIONAL HOSPITAL</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AI3" t="n">
         <v>4411</v>
       </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>STATE</t>
+          <t>01/25/2022</t>
         </is>
       </c>
       <c r="AL3" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>45867.78419329081</v>
-      </c>
-      <c r="AO3" t="inlineStr">
+        <v>45889.49537246783</v>
+      </c>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>name_and_license_match_with_exp_date_filter</t>
         </is>
@@ -1119,48 +1102,44 @@
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="AD4" s="2" t="n">
-        <v>46355</v>
+      <c r="AD4" t="n">
+        <v>65636</v>
       </c>
       <c r="AE4" t="n">
-        <v>65636</v>
-      </c>
-      <c r="AF4" t="n">
         <v>200909101</v>
       </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AI4" t="n">
         <v>4356</v>
       </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>STATE</t>
+          <t>01/15/2024</t>
         </is>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>45867.78419329081</v>
-      </c>
-      <c r="AO4" t="inlineStr">
+        <v>45889.49537246783</v>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>name_and_license_match_with_exp_date_filter</t>
         </is>
@@ -1177,7 +1156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,15 +1312,10 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>facility_exp_date</t>
+          <t>match_timestamp</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>match_timestamp</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>match_criteria</t>
         </is>
@@ -1474,14 +1448,373 @@
         </is>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>46477</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>45867.78419329791</v>
-      </c>
-      <c r="AF2" t="inlineStr">
+        <v>45889.49537247053</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>name_match_but_new_license</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FB_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PROVIDER_ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PROVIDER_CATEGORY_CD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SPECIALTY_DE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LICENSE_NB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LICENSE_TYPE_DES</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EXPIRATION_DATE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facility Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>AHCA Number (File Number)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Licensed Beds</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>License ID</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>License Number</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>License Status</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Closed Date</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>License Effective Date</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>License Expiration Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Street Address</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Street Address 2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Street City</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Street Zip</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Street State</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Street County</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Mailing Address</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Mailing Address 2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Mailing City</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Mailing State</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Mailing Zip</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Mailing County</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Owner Since</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Profit Status</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Web Address</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Admin/CEO</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>facility_type_source</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>match_timestamp</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>match_criteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>86678</v>
+      </c>
+      <c r="B2" t="n">
+        <v>200909102</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>READ CENTER</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CHILDREN'S HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>43533</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01/28/2024</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" s="2" t="n">
+        <v>45889.49537247302</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>expired_license_not_in_facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>87650</v>
+      </c>
+      <c r="B3" t="n">
+        <v>205091021</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BIG BEND HOSPICE INC</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SB</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HOSPICE</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>566</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>01/28/2024</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" s="2" t="n">
+        <v>45889.49537247302</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>expired_license_not_in_facilities</t>
         </is>
       </c>
     </row>

--- a/ahca_data/matched_provider_facility_data.xlsx
+++ b/ahca_data/matched_provider_facility_data.xlsx
@@ -10,6 +10,8 @@
     <sheet name="update_licenses" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="new_licenses" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="expired_licenses" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="update_hospital_beds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="add_hospital_beds" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,50 +589,95 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>licensed_beds</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>FB_NUMBER</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PROVIDER_ID</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>BUSINESS_ENTITY_NAME</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>PROVIDER_CATEGORY_CD</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>SPECIALTY_DE</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>LICENSE_NB</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>LICENSE_TYPE_DES</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>EXPIRATION_DATE</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>FACILITY_BED_ID</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>FACILITY_BED_COUNT</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>FACILITY_BED_START_DATE</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>business_entity_name_clean</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>facility_bed_count</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>name_clean_facility</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>name_clean_provider</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>match_timestamp</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>match_criteria</t>
         </is>
@@ -639,30 +686,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SUNCOAST HOSPICE</t>
+          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hospice</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22910016</v>
+        <v>110049</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(727) 467-7423</t>
+          <t>(941) 251-5000</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>9795</v>
+        <v>10113</v>
       </c>
       <c r="G2" t="n">
-        <v>5032096</v>
+        <v>4356</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -672,28 +719,28 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2/3/2025 12:00:00 AM</t>
+          <t>11/30/2024 12:00:00 AM</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9/28/2025 12:00:00 AM</t>
+          <t>11/29/2026 12:00:00 AM</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2675 TAMPA RD</t>
+          <t>4480 51ST ST W</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>PALM HARBOR</t>
+          <t>BRADENTON</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>34684-3109</t>
+          <t>34210</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -703,18 +750,18 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Pinellas</t>
+          <t>Manatee</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>6310 CAPITAL DR</t>
+          <t>4480 51ST ST W</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>LAKEWOOD RCH</t>
+          <t>BRADENTON</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -724,7 +771,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>34202-5013</t>
+          <t>34210</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -734,74 +781,95 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>THE HOSPICE OF THE FLORIDA SUNCOAST INC</t>
+          <t>PREMIER BEHAVIORAL SOLUTIONS OF FLORIDA, INC.</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>7/1/1994 12:00:00 AM</t>
+          <t>6/24/2005 12:00:00 AM</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Not-For-Profit</t>
+          <t>For-Profit</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>SuncoastHospice.org</t>
+          <t>www.suncoastbhc.com</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>TRAVIS FOGLE</t>
+          <t>BILL JORDAN</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>HOSPICE</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>6554R</t>
-        </is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>200909100</v>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>SUNCOAST HOSPICE</t>
-        </is>
+        <v>65636</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>200909101</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>HOSPICE</t>
-        </is>
-      </c>
-      <c r="AI2" t="n">
-        <v>5032096</v>
+          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="AK2" t="n">
+        <v>4356</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>06/26/2019</t>
-        </is>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>45889.49537246783</v>
-      </c>
       <c r="AM2" t="inlineStr">
+        <is>
+          <t>01/15/2024</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>2242</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="2" t="n">
+        <v>43833</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" s="2" t="n">
+        <v>45905.63296937464</v>
+      </c>
+      <c r="AV2" t="inlineStr">
         <is>
           <t>name_and_license_match_with_exp_date_filter</t>
         </is>
@@ -810,30 +878,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MEMORIAL REGIONAL HOSPITAL</t>
+          <t>SUNCOAST FOLIFE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Hospice</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100038</v>
+        <v>22910016</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(954) 987-2000</t>
+          <t>(727) 467-7423</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>854</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>9857</v>
+        <v>9795</v>
       </c>
       <c r="G3" t="n">
-        <v>4411</v>
+        <v>5032096</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -843,28 +911,28 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9/29/2025 12:00:00 AM</t>
+          <t>2/3/2025 12:00:00 AM</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9/28/2027 12:00:00 AM</t>
+          <t>9/28/2025 12:00:00 AM</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3501 JOHNSON ST</t>
+          <t>2675 TAMPA RD</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>HOLLYWOOD</t>
+          <t>PALM HARBOR</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>33021</t>
+          <t>34684-3109</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -874,18 +942,18 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Broward</t>
+          <t>Pinellas</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3501 JOHNSON ST</t>
+          <t>6310 CAPITAL DR</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>HOLLYWOOD</t>
+          <t>LAKEWOOD RCH</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -895,22 +963,22 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>33021</t>
+          <t>34202-5013</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Broward</t>
+          <t>Manatee</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>SOUTH BROWARD HOSPITAL DISTRICT</t>
+          <t>THE HOSPICE OF THE FLORIDA SUNCOAST INC</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>4/29/1991 12:00:00 AM</t>
+          <t>7/1/1994 12:00:00 AM</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -920,57 +988,94 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>https://www.mhs.net</t>
+          <t>SuncoastHospice.org</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>AURELIO FERNANDEZ</t>
+          <t>TRAVIS FOGLE</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>HOSPICE</t>
         </is>
       </c>
       <c r="AD3" t="n">
-        <v>12344</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>200909099</v>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>MEMORIAL REGIONAL HOSPITAL</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>6554R</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>200909100</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>SUNCOAST HOSPICE</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="AI3" t="n">
-        <v>4411</v>
+          <t>SUNCOAST FOLIFE</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>SB</t>
+        </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
+          <t>HOSPICE</t>
+        </is>
+      </c>
+      <c r="AK3" t="n">
+        <v>5032096</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01/25/2022</t>
-        </is>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>45889.49537246783</v>
-      </c>
       <c r="AM3" t="inlineStr">
+        <is>
+          <t>06/26/2019</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>4455</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>SUNCOAST FOLIFE</t>
+        </is>
+      </c>
+      <c r="AR3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>SUNCOAST FOLIFE</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>SUNCOAST HOSPICE</t>
+        </is>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>45905.63296937464</v>
+      </c>
+      <c r="AV3" t="inlineStr">
         <is>
           <t>name_and_license_match_with_exp_date_filter</t>
         </is>
@@ -979,7 +1084,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+          <t>MEME LLC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -988,21 +1093,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>110049</v>
+        <v>100038</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(941) 251-5000</t>
+          <t>(954) 987-2000</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>854</v>
       </c>
       <c r="F4" t="n">
-        <v>10113</v>
+        <v>9857</v>
       </c>
       <c r="G4" t="n">
-        <v>4356</v>
+        <v>4411</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1012,28 +1117,28 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11/30/2024 12:00:00 AM</t>
+          <t>9/29/2025 12:00:00 AM</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11/29/2026 12:00:00 AM</t>
+          <t>9/28/2027 12:00:00 AM</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4480 51ST ST W</t>
+          <t>3501 JOHNSON ST</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>BRADENTON</t>
+          <t>HOLLYWOOD</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>34210</t>
+          <t>33021</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1043,18 +1148,18 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Manatee</t>
+          <t>Broward</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4480 51ST ST W</t>
+          <t>3501 JOHNSON ST</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>BRADENTON</t>
+          <t>HOLLYWOOD</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1064,37 +1169,37 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>34210</t>
+          <t>33021</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Manatee</t>
+          <t>Broward</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>PREMIER BEHAVIORAL SOLUTIONS OF FLORIDA, INC.</t>
+          <t>SOUTH BROWARD HOSPITAL DISTRICT</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>6/24/2005 12:00:00 AM</t>
+          <t>4/29/1991 12:00:00 AM</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>For-Profit</t>
+          <t>Not-For-Profit</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>www.suncoastbhc.com</t>
+          <t>https://www.mhs.net</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BILL JORDAN</t>
+          <t>AURELIO FERNANDEZ</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1103,43 +1208,78 @@
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>65636</v>
+        <v>854</v>
       </c>
       <c r="AE4" t="n">
-        <v>200909101</v>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
-        </is>
+        <v>12344</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>200909099</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
+          <t>MEMORIAL REGIONAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>MEME LLC</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="AI4" t="n">
-        <v>4356</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="n">
+        <v>4411</v>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01/15/2024</t>
-        </is>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>45889.49537246783</v>
-      </c>
       <c r="AM4" t="inlineStr">
+        <is>
+          <t>01/25/2022</t>
+        </is>
+      </c>
+      <c r="AN4" t="n">
+        <v>323</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>455</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>MEME LLC</t>
+        </is>
+      </c>
+      <c r="AR4" t="n">
+        <v>455</v>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>MEME LLC</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>MEMORIAL REGIONAL HOSPITAL</t>
+        </is>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>45905.63296937464</v>
+      </c>
+      <c r="AV4" t="inlineStr">
         <is>
           <t>name_and_license_match_with_exp_date_filter</t>
         </is>
@@ -1156,7 +1296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,10 +1452,15 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>licensed_beds</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>match_timestamp</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>match_criteria</t>
         </is>
@@ -1447,10 +1592,13 @@
           <t>HOSPICE</t>
         </is>
       </c>
-      <c r="AD2" s="2" t="n">
-        <v>45889.49537247053</v>
-      </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>45905.63296937728</v>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>name_match_but_new_license</t>
         </is>
@@ -1467,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,180 +1641,65 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>BUSINESS_ENTITY_NAME</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>PROVIDER_CATEGORY_CD</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SPECIALTY_DE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>LICENSE_NB</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>LICENSE_TYPE_DES</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>EXPIRATION_DATE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facility Type</t>
+          <t>FACILITY_BED_ID</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>AHCA Number (File Number)</t>
+          <t>FACILITY_BED_COUNT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>FACILITY_BED_START_DATE</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Licensed Beds</t>
+          <t>business_entity_name_clean</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>License ID</t>
+          <t>facility_bed_count</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>License Number</t>
+          <t>match_timestamp</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>License Status</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Closed Date</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>License Effective Date</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>License Expiration Date</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Street Address</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Street Address 2</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Street City</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Street Zip</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Street State</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Street County</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Mailing Address</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Mailing Address 2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Mailing City</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Mailing State</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Mailing Zip</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Mailing County</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Owner</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Owner Since</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Profit Status</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Web Address</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Admin/CEO</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>facility_type_source</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>match_timestamp</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>match_criteria</t>
         </is>
@@ -1674,72 +1707,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86678</v>
+        <v>65636</v>
       </c>
       <c r="B2" t="n">
-        <v>200909102</v>
+        <v>200909101</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>READ CENTER</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CHILDREN'S HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>43533</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4356</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>01/28/2024</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" s="2" t="n">
-        <v>45889.49537247302</v>
-      </c>
-      <c r="AM2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>01/15/2024</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>43833</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>45905.63296937949</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>expired_license_not_in_facilities</t>
         </is>
@@ -1747,72 +1769,123 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>86678</v>
+      </c>
+      <c r="B3" t="n">
+        <v>200909102</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>READ CENTER</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CHILDREN'S HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>43533</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>01/28/2024</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>43834</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45905.63296937949</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>expired_license_not_in_facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>87650</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>205091021</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>BIG BEND HOSPICE INC</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SB</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>HOSPICE</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="n">
         <v>566</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>01/28/2024</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" s="2" t="n">
-        <v>45889.49537247302</v>
-      </c>
-      <c r="AM3" t="inlineStr">
+      <c r="J4" t="n">
+        <v>55</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>43835</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>45905.63296937949</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>expired_license_not_in_facilities</t>
         </is>
@@ -1821,4 +1894,147 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PROVIDER_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FB_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROVIDER_CATEGORY_CD</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>licensed_beds</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FACILITY_BED_ID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>effectiveDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>200909101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>65636</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2242</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>200909100</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6554R</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SB</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4455</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>200909099</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12344</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>854</v>
+      </c>
+      <c r="E4" t="n">
+        <v>323</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ahca_data/matched_provider_facility_data.xlsx
+++ b/ahca_data/matched_provider_facility_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/purple/web-scraper/ahca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61609BD3-0A4B-F14D-8706-53DE1F2B453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF53F14-6FF0-B341-984F-559E56EF49F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="update_licenses" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,6 +824,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1495,9 +1499,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1695,9 +1704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2037,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
